--- a/COM212 GERÊNCIA DE PROJETOS/Matriz-de-Rastreabilidade-MiauAu.xlsx
+++ b/COM212 GERÊNCIA DE PROJETOS/Matriz-de-Rastreabilidade-MiauAu.xlsx
@@ -5,15 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerente Esportes\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juliana\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="147">
   <si>
     <t>Prioridade</t>
   </si>
@@ -207,9 +206,6 @@
     <t>O requisito é ativado quando o usuário ou o desenvolvedor desejam excluir o aviso.</t>
   </si>
   <si>
-    <t>Ativo</t>
-  </si>
-  <si>
     <t>Pendente</t>
   </si>
   <si>
@@ -228,9 +224,6 @@
     <t>Data de Conclusão</t>
   </si>
   <si>
-    <t>É o processo de digitação da mensagem e do clique do botão para o envio e publicado na Aba duvidas do site.</t>
-  </si>
-  <si>
     <t>O usuário precisa estar logado com seu identificador no site</t>
   </si>
   <si>
@@ -255,30 +248,12 @@
     <t>RFS012</t>
   </si>
   <si>
-    <t>RFC001 - CRUDE AVISOS</t>
-  </si>
-  <si>
-    <t>RFC002- CRUDE MENSAGEM</t>
-  </si>
-  <si>
-    <t>RFC003 - CRUDE USUÁRIO</t>
-  </si>
-  <si>
-    <t>RFC0004 - AVALIAÇÃO</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>O requisito é ativado quando o usuário ou o desenvolvedor desejam excluir a mensagem.</t>
   </si>
   <si>
     <t>Responsável pela tarefa</t>
   </si>
   <si>
-    <t>O requisito é ativado sempre que alguem queira ver a mensagem</t>
-  </si>
-  <si>
     <t>Cadrastar o Usuário no Sistema</t>
   </si>
   <si>
@@ -303,18 +278,6 @@
     <t>RFS013</t>
   </si>
   <si>
-    <t>Avaliar a Ferramenta</t>
-  </si>
-  <si>
-    <t>O Usuário loga com seu login e senha e avalia a ferramenta.</t>
-  </si>
-  <si>
-    <t>Testes no Bugzila e no Tortoise dos RFC3 e RFC04.</t>
-  </si>
-  <si>
-    <t>Testes no Bugzila e no Tortoise dos RFC02.</t>
-  </si>
-  <si>
     <t>Testes no Bugzila e no Tortoise do RFC01.</t>
   </si>
   <si>
@@ -334,6 +297,174 @@
   </si>
   <si>
     <t>O Professor deve conter o trabalho completo .</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>RFS014</t>
+  </si>
+  <si>
+    <t>RFS015</t>
+  </si>
+  <si>
+    <t>Publicação de pergunta.</t>
+  </si>
+  <si>
+    <t>O usuário digita a pergunta e o sistema analise se tem algo digtado e se tem menos 180 caracteres.</t>
+  </si>
+  <si>
+    <t>Deletar pergunta</t>
+  </si>
+  <si>
+    <t>Botão de Exclusão</t>
+  </si>
+  <si>
+    <t>O requisito é ativado sempre que alguem queira ver uma pergunta.</t>
+  </si>
+  <si>
+    <t>Marcar uma pergunta para que ela vá para o FAQ</t>
+  </si>
+  <si>
+    <t>Só o administrador pode marcar as perguntas.</t>
+  </si>
+  <si>
+    <t>Botão de prioridade no usuário</t>
+  </si>
+  <si>
+    <t>Conceder a um usuário as autoridades no sistema.</t>
+  </si>
+  <si>
+    <t>Só o administrador pode classificar os usuários;</t>
+  </si>
+  <si>
+    <t>Desconceder a um usuário as autoridades no sistema.</t>
+  </si>
+  <si>
+    <t>Alterar a autoridade de um usuário no sistema.</t>
+  </si>
+  <si>
+    <t>RFS016</t>
+  </si>
+  <si>
+    <t>RFS017</t>
+  </si>
+  <si>
+    <t>RFS018</t>
+  </si>
+  <si>
+    <t>RFS019</t>
+  </si>
+  <si>
+    <t>RFS020</t>
+  </si>
+  <si>
+    <t>RFS021</t>
+  </si>
+  <si>
+    <t>RFS022</t>
+  </si>
+  <si>
+    <t>Testes no Bugzila e no Tortoise do RFC03 e RFC04.</t>
+  </si>
+  <si>
+    <t>Publicação de Notícia no Site</t>
+  </si>
+  <si>
+    <t>Vizualizar Noticia</t>
+  </si>
+  <si>
+    <t>Editar Noticia</t>
+  </si>
+  <si>
+    <t>Excluir notícia</t>
+  </si>
+  <si>
+    <t>Tamanho da notícia</t>
+  </si>
+  <si>
+    <t>Fazer um comentario na noticia</t>
+  </si>
+  <si>
+    <t>A mensagem deve conter menos de 180 caracteres.</t>
+  </si>
+  <si>
+    <t>Editar comentario na noticia</t>
+  </si>
+  <si>
+    <t>Deletar comentario na noticia</t>
+  </si>
+  <si>
+    <t>RFS023</t>
+  </si>
+  <si>
+    <t>RFS024</t>
+  </si>
+  <si>
+    <t>RFS025</t>
+  </si>
+  <si>
+    <t>RFS026</t>
+  </si>
+  <si>
+    <t>RFS027</t>
+  </si>
+  <si>
+    <t>RFS028</t>
+  </si>
+  <si>
+    <t>RFS029</t>
+  </si>
+  <si>
+    <t>RFS030</t>
+  </si>
+  <si>
+    <t>RFS031</t>
+  </si>
+  <si>
+    <t>RFS032</t>
+  </si>
+  <si>
+    <t>Só o administrador pode deletar os comentarios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relatório 01 - </t>
+  </si>
+  <si>
+    <t>Implementação do relatório sem  o google analitycs.</t>
+  </si>
+  <si>
+    <t>Testes no Bugzila e no Tortoise do RFC05 e RFC06.</t>
+  </si>
+  <si>
+    <t>É o processo de resposta da mensagem e do clique do botão para o envio e publicado.</t>
+  </si>
+  <si>
+    <t>O requisito é ativado sempre que alguem queira ver a resposta</t>
+  </si>
+  <si>
+    <t>Cadastrar Patrocinador</t>
+  </si>
+  <si>
+    <t>Consultar Patrocinador</t>
+  </si>
+  <si>
+    <t>Alterar Patrocinador</t>
+  </si>
+  <si>
+    <t>Excluir Patrocinador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relatório 02 - </t>
+  </si>
+  <si>
+    <t>Testes no Bugzila e no Tortoise do RFC07 e RFC08.</t>
+  </si>
+  <si>
+    <t>x008</t>
+  </si>
+  <si>
+    <t>Digitar o nome do usuário.</t>
   </si>
 </sst>
 </file>
@@ -420,16 +551,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -467,7 +595,9 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,34 +878,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q22"/>
+  <dimension ref="A2:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="L39" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="38.42578125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="16" style="4" customWidth="1"/>
-    <col min="12" max="13" width="25.28515625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="24.5703125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="21" style="4" customWidth="1"/>
-    <col min="16" max="16" width="21" style="13" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" style="4" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="38.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16" style="12" customWidth="1"/>
+    <col min="12" max="13" width="25.28515625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="21" style="3" customWidth="1"/>
+    <col min="16" max="16" width="21" style="12" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -810,7 +943,7 @@
         <v>6</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>7</v>
@@ -819,182 +952,182 @@
         <v>8</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="6" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+    <row r="3" spans="1:17" s="5" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>42979</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="9">
         <v>42984</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="9">
         <v>42984</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="6" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+    <row r="4" spans="1:17" s="5" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <v>42979</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="9">
         <v>42990</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="9">
         <v>42990</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="6" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    <row r="5" spans="1:17" s="5" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <v>42993</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="9">
         <v>43010</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="9">
         <v>42993</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1003,39 +1136,39 @@
       <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="13">
         <v>43022</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="14">
+      <c r="P6" s="13">
         <v>43033</v>
       </c>
-      <c r="Q6" s="11" t="s">
-        <v>60</v>
+      <c r="Q6" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1050,37 +1183,39 @@
       <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>28</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="13">
+        <v>39327</v>
+      </c>
       <c r="L7" s="2"/>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="10" t="s">
         <v>30</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="14">
+      <c r="P7" s="13">
         <v>43033</v>
       </c>
-      <c r="Q7" s="11" t="s">
-        <v>61</v>
+      <c r="Q7" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1095,37 +1230,39 @@
       <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="K8" s="13">
+        <v>42980</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="14">
+      <c r="P8" s="13">
         <v>43033</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>61</v>
+      <c r="Q8" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1135,157 +1272,163 @@
         <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="K9" s="13">
+        <v>39330</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="M9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="O9" s="2"/>
-      <c r="P9" s="14">
+      <c r="P9" s="13">
         <v>43033</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>61</v>
+      <c r="Q9" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="4" t="s">
         <v>39</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="14">
+      <c r="P10" s="13">
         <v>43033</v>
       </c>
-      <c r="Q10" s="2" t="s">
-        <v>61</v>
+      <c r="Q10" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>37</v>
+      <c r="B11" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="5" t="s">
+      <c r="G11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>28</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="14">
-        <v>43040</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="P11" s="13">
+        <v>43033</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>13</v>
+      <c r="B12" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="G12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="4" t="s">
         <v>28</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1294,22 +1437,22 @@
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="14">
-        <v>43040</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>37</v>
+      <c r="P12" s="13">
+        <v>43033</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>17</v>
@@ -1320,522 +1463,1541 @@
       <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="5" t="s">
+      <c r="G13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>28</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="14">
-        <v>43040</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="P13" s="13">
+        <v>43033</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>37</v>
+      <c r="B14" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>28</v>
+        <v>68</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="K14" s="13">
+        <v>39335</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="M14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N14" s="2"/>
+      <c r="N14" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="O14" s="2"/>
-      <c r="P14" s="14">
-        <v>43040</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>61</v>
+      <c r="P14" s="13">
+        <v>43033</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="13">
+        <v>43042</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P15" s="13">
+        <v>43048</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="13">
+        <v>43044</v>
+      </c>
+      <c r="L16" s="15">
+        <v>43048</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P16" s="13">
+        <v>43048</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="13">
+        <v>43044</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="13">
+        <v>43048</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="14">
-        <v>43040</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2" t="s">
+      <c r="F18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="13">
+        <v>43047</v>
+      </c>
+      <c r="L18" s="15">
+        <v>43048</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="14">
-        <v>43047</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="14">
-        <v>43047</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="O18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P18" s="13">
+        <v>43048</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" s="13">
+        <v>43046</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="14">
-        <v>43047</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="14">
-        <v>43047</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>61</v>
+      <c r="N19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" s="13">
+        <v>43048</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>37</v>
+      <c r="B20" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>28</v>
       </c>
       <c r="J20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="13">
+        <v>43046</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P20" s="13">
+        <v>43048</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="14">
-        <v>43047</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>39</v>
+      <c r="I21" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="K21" s="13">
+        <v>43046</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="M21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="14">
-        <v>43047</v>
-      </c>
-      <c r="Q21" s="2" t="s">
+      <c r="N21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" s="13">
+        <v>43048</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" s="13">
+        <v>43048</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="13">
+        <v>43048</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="13">
+        <v>43049</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="13">
+        <v>43055</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="13">
+        <v>43051</v>
+      </c>
+      <c r="L24" s="15">
+        <v>43051</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P24" s="13">
+        <v>43055</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="13">
+        <v>43051</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P25" s="13">
+        <v>43057</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K26" s="13">
+        <v>43051</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P26" s="13">
+        <v>43058</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K27" s="13">
+        <v>43054</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P27" s="13">
+        <v>43060</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K28" s="13">
+        <v>43054</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P28" s="13">
+        <v>43060</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K29" s="13">
+        <v>43054</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P29" s="13">
+        <v>43060</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K30" s="13">
+        <v>43059</v>
+      </c>
+      <c r="L30" s="15">
+        <v>43062</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P30" s="13">
+        <v>43062</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31" s="13">
+        <v>43062</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" s="13">
+        <v>43062</v>
+      </c>
+      <c r="Q31" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" s="13">
+        <v>43057</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P32" s="13">
+        <v>43062</v>
+      </c>
+      <c r="Q32" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
-        <v>20</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="K33" s="13">
+        <v>43058</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P33" s="13">
+        <v>43062</v>
+      </c>
+      <c r="Q33" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" s="13">
+        <v>43058</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P34" s="13">
+        <v>43062</v>
+      </c>
+      <c r="Q34" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K35" s="13">
+        <v>43058</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P35" s="13">
+        <v>43061</v>
+      </c>
+      <c r="Q35" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K36" s="13">
+        <v>43058</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P36" s="13">
+        <v>43061</v>
+      </c>
+      <c r="Q36" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K37" s="13">
+        <v>43058</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P37" s="13">
+        <v>43061</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K38" s="13">
+        <v>43058</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P38" s="13">
+        <v>43061</v>
+      </c>
+      <c r="Q38" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K39" s="13">
+        <v>43058</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P39" s="13">
+        <v>43061</v>
+      </c>
+      <c r="Q39" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="13">
+        <v>43058</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P40" s="13">
+        <v>43061</v>
+      </c>
+      <c r="Q40" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="5" t="s">
+      <c r="D41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="14">
-        <v>43047</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="19" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="str">
-        <f>B2</f>
-        <v>RFC001 - CRUDE AVISOS</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="str">
-        <f>C2</f>
-        <v>RFC002- CRUDE MENSAGEM</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="str">
-        <f>D2</f>
-        <v>RFC003 - CRUDE USUÁRIO</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="str">
-        <f>E2</f>
-        <v>RFC0004 - AVALIAÇÃO</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>80</v>
+      <c r="J41" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K41" s="13">
+        <v>43061</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" s="13">
+        <v>43061</v>
+      </c>
+      <c r="Q41" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
